--- a/WSC/Test Report/Procurement & Inventory/Report.xlsx
+++ b/WSC/Test Report/Procurement & Inventory/Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12330" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="TC1_Price Impanelement Report" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="208">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>Executed By</t>
   </si>
   <si>
     <t>S#</t>
@@ -53,6 +56,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Test URL</t>
     </r>
     <r>
@@ -72,6 +83,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>User</t>
     </r>
     <r>
@@ -111,6 +130,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>User</t>
     </r>
     <r>
@@ -2106,8 +2133,8 @@
   <sheetPr/>
   <dimension ref="A1:G41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2153,48 +2180,56 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="45" spans="1:3">
       <c r="A7" s="11">
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="13" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:4">
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:3">
       <c r="A8" s="11">
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:4">
+      <c r="C8" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="11">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="15" t="s">
         <v>15</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:1">
@@ -2202,10 +2237,10 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
@@ -2213,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" customHeight="1" spans="1:2">
@@ -2221,7 +2256,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:2">
@@ -2229,7 +2264,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
@@ -2237,7 +2272,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:2">
@@ -2245,7 +2280,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:2">
@@ -2253,7 +2288,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:2">
@@ -2261,30 +2296,30 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:7">
       <c r="A21" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:7">
@@ -2292,16 +2327,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="25"/>
@@ -2311,16 +2346,16 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="25"/>
@@ -2330,16 +2365,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="25"/>
@@ -2349,16 +2384,16 @@
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="25"/>
@@ -2368,16 +2403,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="25">
@@ -2389,16 +2424,16 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="25"/>
@@ -2408,16 +2443,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="25"/>
@@ -2427,16 +2462,16 @@
         <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="25"/>
@@ -2446,16 +2481,16 @@
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="25"/>
@@ -2465,54 +2500,54 @@
         <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>59</v>
-      </c>
       <c r="E31" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="32" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A32" s="18">
         <v>11</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="25"/>
     </row>
-    <row r="33" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="33" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A33" s="18">
         <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="25"/>
@@ -2522,16 +2557,16 @@
         <v>13</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="25"/>
@@ -2541,16 +2576,16 @@
         <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="25"/>
@@ -2560,16 +2595,16 @@
         <v>15</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="25"/>
@@ -2579,16 +2614,16 @@
         <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="25"/>
@@ -2598,16 +2633,16 @@
         <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="25"/>
@@ -2617,16 +2652,16 @@
         <v>18</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="25"/>
@@ -2663,8 +2698,8 @@
   <sheetPr/>
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -2683,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -2710,48 +2745,56 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="30" spans="1:3">
       <c r="A7" s="11">
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" spans="1:4">
+        <v>86</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" spans="1:3">
       <c r="A8" s="11">
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:4">
+      <c r="C8" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="11">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="15" t="s">
         <v>15</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:1">
@@ -2759,10 +2802,10 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
@@ -2770,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" customHeight="1" spans="1:2">
@@ -2778,7 +2821,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:2">
@@ -2786,7 +2829,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
@@ -2794,7 +2837,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:2">
@@ -2802,7 +2845,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:2">
@@ -2810,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:2">
@@ -2818,30 +2861,30 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:7">
       <c r="A21" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:7">
@@ -2849,38 +2892,38 @@
         <v>1</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="25"/>
     </row>
-    <row r="23" s="1" customFormat="1" ht="60" spans="1:7">
+    <row r="23" s="1" customFormat="1" ht="45" spans="1:7">
       <c r="A23" s="22">
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" s="25">
         <v>74</v>
@@ -2891,35 +2934,35 @@
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="25"/>
     </row>
-    <row r="25" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="25" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A25" s="22">
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="25"/>
@@ -2929,16 +2972,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="25"/>
@@ -2948,54 +2991,54 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D27" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>99</v>
-      </c>
       <c r="E27" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="28" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A28" s="22">
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="25"/>
     </row>
-    <row r="29" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="29" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A29" s="22">
         <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="25"/>
@@ -3005,16 +3048,16 @@
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="25"/>
@@ -3024,35 +3067,35 @@
         <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="32" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A32" s="22">
         <v>11</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="25"/>
@@ -3062,16 +3105,16 @@
         <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="25"/>
@@ -3081,16 +3124,16 @@
         <v>13</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="25"/>
@@ -3100,16 +3143,16 @@
         <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="25"/>
@@ -3119,16 +3162,16 @@
         <v>15</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="25"/>
@@ -3138,16 +3181,16 @@
         <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="25"/>
@@ -3157,16 +3200,16 @@
         <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="25"/>
@@ -3176,16 +3219,16 @@
         <v>18</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="25"/>
@@ -3195,16 +3238,16 @@
         <v>19</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="25"/>
@@ -3214,54 +3257,54 @@
         <v>20</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="25"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="42" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A42" s="22">
         <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="43" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A43" s="22">
         <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="25"/>
@@ -3271,16 +3314,16 @@
         <v>23</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="25"/>
@@ -3290,16 +3333,16 @@
         <v>24</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="25"/>
@@ -3309,16 +3352,16 @@
         <v>25</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="25"/>
@@ -3328,16 +3371,16 @@
         <v>26</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="25"/>
@@ -3347,16 +3390,16 @@
         <v>27</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="25"/>
@@ -3366,16 +3409,16 @@
         <v>28</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="25"/>
@@ -3385,16 +3428,16 @@
         <v>29</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E50" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F50" s="3"/>
       <c r="G50" s="25"/>
@@ -3404,16 +3447,16 @@
         <v>30</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F51" s="3"/>
       <c r="G51" s="25"/>
@@ -3423,16 +3466,16 @@
         <v>31</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F52" s="3"/>
       <c r="G52" s="25"/>
@@ -3442,16 +3485,16 @@
         <v>32</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F53" s="3"/>
       <c r="G53" s="25"/>
@@ -3488,8 +3531,8 @@
   <sheetPr/>
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3507,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
@@ -3524,7 +3567,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -3534,48 +3577,56 @@
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:4">
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" spans="1:3">
       <c r="A6" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="45" spans="1:4">
+      <c r="C6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="45" spans="1:3">
       <c r="A7" s="11">
         <v>1</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="30" spans="1:4">
+        <v>155</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="30" spans="1:3">
       <c r="A8" s="11">
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="1" spans="1:4">
+      <c r="C8" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:3">
       <c r="A9" s="11">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="15" t="s">
         <v>15</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:1">
@@ -3583,10 +3634,10 @@
     </row>
     <row r="11" s="1" customFormat="1" spans="1:2">
       <c r="A11" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:2">
@@ -3594,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" ht="30" customHeight="1" spans="1:2">
@@ -3602,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:2">
@@ -3610,7 +3661,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:2">
@@ -3618,7 +3669,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:2">
@@ -3626,7 +3677,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" s="1" customFormat="1" spans="1:2">
@@ -3634,7 +3685,7 @@
         <v>6</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:2">
@@ -3642,30 +3693,30 @@
         <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:7">
       <c r="A21" s="21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" s="1" customFormat="1" spans="1:7">
@@ -3673,16 +3724,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F22" s="3"/>
       <c r="G22" s="25"/>
@@ -3692,16 +3743,16 @@
         <v>2</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F23" s="3"/>
       <c r="G23" s="25"/>
@@ -3711,16 +3762,16 @@
         <v>3</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="25"/>
@@ -3730,16 +3781,16 @@
         <v>4</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="25"/>
@@ -3749,16 +3800,16 @@
         <v>5</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="25"/>
@@ -3768,35 +3819,35 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="25"/>
     </row>
-    <row r="28" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="28" s="1" customFormat="1" spans="1:7">
       <c r="A28" s="18">
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="25"/>
@@ -3806,73 +3857,73 @@
         <v>8</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F29" s="3"/>
       <c r="G29" s="25"/>
     </row>
-    <row r="30" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="30" s="1" customFormat="1" spans="1:7">
       <c r="A30" s="18">
         <v>9</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="25"/>
     </row>
-    <row r="31" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="31" s="1" customFormat="1" spans="1:7">
       <c r="A31" s="18">
         <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E31" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F31" s="3"/>
       <c r="G31" s="25"/>
     </row>
-    <row r="32" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="32" s="1" customFormat="1" spans="1:7">
       <c r="A32" s="18">
         <v>11</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="25"/>
@@ -3882,16 +3933,16 @@
         <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F33" s="3"/>
       <c r="G33" s="25"/>
@@ -3901,16 +3952,16 @@
         <v>13</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E34" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F34" s="3"/>
       <c r="G34" s="25"/>
@@ -3920,16 +3971,16 @@
         <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E35" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F35" s="3"/>
       <c r="G35" s="25"/>
@@ -3939,35 +3990,35 @@
         <v>15</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E36" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F36" s="3"/>
       <c r="G36" s="25"/>
     </row>
-    <row r="37" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="37" s="1" customFormat="1" spans="1:7">
       <c r="A37" s="18">
         <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E37" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F37" s="3"/>
       <c r="G37" s="25"/>
@@ -3977,35 +4028,35 @@
         <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E38" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38" s="3"/>
       <c r="G38" s="25"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="30" spans="1:7">
+    <row r="39" s="1" customFormat="1" spans="1:7">
       <c r="A39" s="18">
         <v>18</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D39" s="27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E39" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="3"/>
       <c r="G39" s="25"/>
@@ -4015,16 +4066,16 @@
         <v>19</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E40" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F40" s="3"/>
       <c r="G40" s="25"/>
@@ -4034,54 +4085,54 @@
         <v>20</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E41" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F41" s="3"/>
       <c r="G41" s="25"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="42" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A42" s="18">
         <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E42" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F42" s="3"/>
       <c r="G42" s="25"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="45" spans="1:7">
+    <row r="43" s="1" customFormat="1" ht="30" spans="1:7">
       <c r="A43" s="18">
         <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E43" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F43" s="3"/>
       <c r="G43" s="25"/>
@@ -4091,16 +4142,16 @@
         <v>23</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E44" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F44" s="3"/>
       <c r="G44" s="25"/>
@@ -4110,16 +4161,16 @@
         <v>24</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E45" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F45" s="3"/>
       <c r="G45" s="25"/>
@@ -4129,16 +4180,16 @@
         <v>25</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E46" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F46" s="3"/>
       <c r="G46" s="25"/>
@@ -4148,16 +4199,16 @@
         <v>26</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E47" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F47" s="3"/>
       <c r="G47" s="25"/>
@@ -4167,16 +4218,16 @@
         <v>27</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E48" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F48" s="3"/>
       <c r="G48" s="25"/>
@@ -4186,16 +4237,16 @@
         <v>28</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E49" s="24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F49" s="3"/>
       <c r="G49" s="25"/>
